--- a/biology/Biologie cellulaire et moléculaire/Clonage_reproductif/Clonage_reproductif.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Clonage_reproductif/Clonage_reproductif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clonage reproductif est une forme de reproduction artificielle employant la technique du clonage. On le distingue du clonage thérapeutique ou, plus proprement, du clonage à visée thérapeutique
 Il existe deux méthodes de clonage dont l'application pourrait être envisagée pour la reproduction humaine : le clonage par scission d'un blastocyste, et le clonage par transfert d'un noyau cellulaire au sein d'un ovule énuclée. 
@@ -519,7 +531,9 @@
           <t>Le clonage par implantation d'un noyau d'une cellule somatique dans un ovule énucléé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clonage par implantation de noyau cellulaire exploite la propriété "programmatrice" de l'ADN du noyau des cellules somatiques pour lancer le développement embryonnaire avec un ovule et donner naissance à un individu. Il consiste à retirer d'un ovule son noyau cellulaire pour remplacer celui-ci par le noyau d'une cellule somatique d'un autre individu. Une décharge électrique lance le développement embryonnaire. L'embryon est ensuite implanté dans l'utérus d'une femme.
 C'est de cette méthode qu'est issue la Brebis Dolly. Cette technique pose beaucoup plus de difficultés que la précédente. Son application à l'humain pose encore des problèmes techniques. Mais c'est surtout au niveau éthique que ce clonage suscite des réactions, du fait que l'individu né grâce à cette technique a le même ADN nucléaire que la personne sur laquelle la cellule somatique a été prélevée. 
@@ -529,7 +543,7 @@
 Quelle influence cette technique aurait-elle sur la diversité génétique et sur l'évolution de l'espèce humaine ?
 De quelle liberté et dignité disposeraient les individus issus de cette technique ?
 Cette pratique a fait l'objet d'une interdiction en droit français, élevée au rang de crime contre l'espèce humaine.
-Un rapport d'une commission parlementaire au Royaume-Uni de mars 2005 indiquait que l'opposition au clonage reproductif était basée plus sur des tabous que sur des arguments cohérents[1].
+Un rapport d'une commission parlementaire au Royaume-Uni de mars 2005 indiquait que l'opposition au clonage reproductif était basée plus sur des tabous que sur des arguments cohérents.
 </t>
         </is>
       </c>
